--- a/docs/data/countries.xlsx
+++ b/docs/data/countries.xlsx
@@ -412,7 +412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,49 +1229,52 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44287</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44317</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44348</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44378</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44409</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44440</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44470</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44501</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44531</v>
+      </c>
+      <c r="K73" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1284,6 +1287,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1474,15 +1486,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1499,6 +1502,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1515,14 +1526,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/data/countries.xlsx
+++ b/docs/data/countries.xlsx
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1277,84 @@
         <v>20</v>
       </c>
     </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>44593</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>44713</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>44774</v>
+      </c>
+      <c r="D81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>44805</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C83" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>44896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1287,6 +1365,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
+    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
+    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1295,7 +1388,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1486,22 +1579,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
-    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
-    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1509,7 +1606,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1528,23 +1625,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/data/countries.xlsx
+++ b/docs/data/countries.xlsx
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84:O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44774</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44805</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44835</v>
       </c>
@@ -1345,15 +1345,295 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44866</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44896</v>
       </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>44927</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>44958</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>44986</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45017</v>
+      </c>
+      <c r="G89" s="3">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45047</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45078</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45108</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45139</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45170</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>45200</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>45231</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>45261</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>45323</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>45352</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>45383</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>45413</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,15 +1660,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1579,6 +1850,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
   <ds:schemaRefs>
@@ -1599,14 +1879,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1625,4 +1897,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/data/countries.xlsx
+++ b/docs/data/countries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>France</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
@@ -408,11 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84:O104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +433,12 @@
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="12" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -462,14 +469,20 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>42370</v>
       </c>
@@ -477,17 +490,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42401</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42430</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42461</v>
       </c>
@@ -495,12 +508,14 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="1">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1">
         <v>23</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>42491</v>
       </c>
@@ -511,12 +526,14 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="1">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1">
         <v>80</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>42522</v>
       </c>
@@ -524,12 +541,14 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="1">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1">
         <v>23.19</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>42552</v>
       </c>
@@ -543,12 +562,14 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="1">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1">
         <v>81.67</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>42583</v>
       </c>
@@ -559,12 +580,14 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="1">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1">
         <v>103.91</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>42614</v>
       </c>
@@ -572,12 +595,14 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="1">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="1">
         <v>10</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>42644</v>
       </c>
@@ -585,12 +610,14 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="1">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>42675</v>
       </c>
@@ -604,12 +631,14 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="1">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="1">
         <v>80</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>42705</v>
       </c>
@@ -620,15 +649,17 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="1">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="1">
         <v>80</v>
       </c>
-      <c r="L13" s="1">
-        <f>AVERAGE(K2:K13)</f>
+      <c r="N13" s="1">
+        <f>AVERAGE(M2:M13)</f>
         <v>54.641111111111108</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>42736</v>
       </c>
@@ -639,12 +670,14 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="1">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="1">
         <v>23.65</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>42767</v>
       </c>
@@ -652,12 +685,14 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="1">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>42795</v>
       </c>
@@ -665,12 +700,14 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="1">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>42826</v>
       </c>
@@ -678,12 +715,14 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="1">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1">
         <v>10.83</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>42856</v>
       </c>
@@ -697,12 +736,14 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="1">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1">
         <v>82.91</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>42887</v>
       </c>
@@ -713,12 +754,14 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="1">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="1">
         <v>82.28</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>42917</v>
       </c>
@@ -729,12 +772,14 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="1">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="1">
         <v>82.19</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>42948</v>
       </c>
@@ -744,12 +789,14 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="1">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="1">
         <v>120.6</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>42979</v>
       </c>
@@ -760,12 +807,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="1">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="1">
         <v>65.83</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43009</v>
       </c>
@@ -779,12 +828,14 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="1">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="1">
         <v>66.66</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43040</v>
       </c>
@@ -795,12 +846,14 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="1">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="1">
         <v>23</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43070</v>
       </c>
@@ -811,15 +864,17 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="1">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="1">
         <v>23</v>
       </c>
-      <c r="L25" s="1">
-        <f>AVERAGE(K14:K25)</f>
+      <c r="N25" s="1">
+        <f>AVERAGE(M14:M25)</f>
         <v>50.095833333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43101</v>
       </c>
@@ -830,12 +885,14 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="1">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="1">
         <v>65</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43132</v>
       </c>
@@ -843,12 +900,14 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="1">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1">
         <v>24.56</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43160</v>
       </c>
@@ -862,12 +921,14 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="1">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1">
         <v>110.86</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43191</v>
       </c>
@@ -875,58 +936,60 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="1">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="1">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43221</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43252</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M31" s="1">
         <v>126.33</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43282</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M32" s="1">
         <v>68.010000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43313</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M33" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43344</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43374</v>
       </c>
@@ -936,86 +999,86 @@
       <c r="F35" s="3">
         <v>3</v>
       </c>
-      <c r="K35" s="1">
+      <c r="M35" s="1">
         <v>81.7</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43405</v>
       </c>
       <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="K36" s="1">
+      <c r="M36" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43435</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="1">
         <v>8.5</v>
       </c>
-      <c r="L37" s="1">
-        <f>AVERAGE(K26:K37)</f>
+      <c r="N37" s="1">
+        <f>AVERAGE(M26:M37)</f>
         <v>48.080000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43466</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="K38" s="1">
+      <c r="M38" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43497</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43525</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="K40" s="1">
+      <c r="M40" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43556</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43586</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
-      <c r="K42" s="1">
+      <c r="M42" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43617</v>
       </c>
@@ -1028,11 +1091,11 @@
       <c r="H43" s="3">
         <v>4</v>
       </c>
-      <c r="K43" s="1">
+      <c r="M43" s="1">
         <v>89.8</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43647</v>
       </c>
@@ -1045,38 +1108,38 @@
       <c r="J44" s="2">
         <v>6</v>
       </c>
-      <c r="K44" s="1">
+      <c r="M44" s="1">
         <v>101.03</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43678</v>
       </c>
-      <c r="K45" s="1">
+      <c r="M45" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43709</v>
       </c>
-      <c r="K46" s="1">
+      <c r="M46" s="1">
         <v>18.5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43739</v>
       </c>
       <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="1">
         <v>105.25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43770</v>
       </c>
@@ -1086,203 +1149,203 @@
       <c r="E48" s="3">
         <v>4</v>
       </c>
-      <c r="K48" s="1">
+      <c r="M48" s="1">
         <v>122.22</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43800</v>
       </c>
-      <c r="K49" s="1">
+      <c r="M49" s="1">
         <v>8.5</v>
       </c>
-      <c r="L49" s="1">
-        <f>AVERAGE(K38:K49)</f>
+      <c r="N49" s="1">
+        <f>AVERAGE(M38:M49)</f>
         <v>54.81666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43831</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
-      <c r="K50" s="1">
+      <c r="M50" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43862</v>
       </c>
-      <c r="K51" s="1">
+      <c r="M51" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43891</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
       </c>
-      <c r="K52" s="1">
+      <c r="M52" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43922</v>
       </c>
-      <c r="K53" s="1">
+      <c r="M53" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43952</v>
       </c>
-      <c r="K54" s="1">
+      <c r="M54" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43983</v>
       </c>
-      <c r="K55" s="1">
+      <c r="M55" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44013</v>
       </c>
-      <c r="K56" s="1">
+      <c r="M56" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44044</v>
       </c>
-      <c r="K57" s="1">
+      <c r="M57" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44075</v>
       </c>
-      <c r="K58" s="1">
+      <c r="M58" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44105</v>
       </c>
-      <c r="K59" s="1">
+      <c r="M59" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44136</v>
       </c>
-      <c r="K60" s="1">
+      <c r="M60" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>44166</v>
       </c>
-      <c r="K61" s="1">
+      <c r="M61" s="1">
         <v>20</v>
       </c>
-      <c r="L61" s="1">
-        <f>AVERAGE(K50:K61)</f>
+      <c r="N61" s="1">
+        <f>AVERAGE(M50:M61)</f>
         <v>24.041666666666668</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44197</v>
       </c>
-      <c r="K62" s="1">
+      <c r="M62" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44228</v>
       </c>
-      <c r="K63" s="1">
+      <c r="M63" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44256</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>44287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>44317</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44348</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44378</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44409</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44440</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>44470</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>44501</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44531</v>
       </c>
-      <c r="K73" s="1">
+      <c r="M73" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44562</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>44593</v>
       </c>
@@ -1290,22 +1353,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44621</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44652</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44682</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>44713</v>
       </c>
@@ -1313,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44743</v>
       </c>
@@ -1321,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>44774</v>
       </c>
@@ -1329,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>44805</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44835</v>
       </c>
@@ -1345,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>44866</v>
       </c>
@@ -1358,8 +1421,10 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44896</v>
       </c>
@@ -1372,8 +1437,10 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44927</v>
       </c>
@@ -1386,10 +1453,15 @@
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>44958</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -1400,8 +1472,10 @@
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>44986</v>
       </c>
@@ -1414,8 +1488,10 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>45017</v>
       </c>
@@ -1430,8 +1506,10 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>45047</v>
       </c>
@@ -1444,8 +1522,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>45078</v>
       </c>
@@ -1458,8 +1538,10 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>45108</v>
       </c>
@@ -1472,8 +1554,10 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>45139</v>
       </c>
@@ -1481,13 +1565,19 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="K93" s="3">
+        <v>10</v>
+      </c>
+      <c r="L93" s="3">
+        <v>3</v>
+      </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>45170</v>
       </c>
@@ -1500,8 +1590,10 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>45200</v>
       </c>
@@ -1514,8 +1606,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>45231</v>
       </c>
@@ -1528,8 +1622,10 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>45261</v>
       </c>
@@ -1542,8 +1638,10 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>45292</v>
       </c>
@@ -1556,8 +1654,10 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>45323</v>
       </c>
@@ -1570,8 +1670,10 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>45352</v>
       </c>
@@ -1584,8 +1686,10 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>45383</v>
       </c>
@@ -1598,8 +1702,10 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>45413</v>
       </c>
@@ -1612,8 +1718,10 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -1623,8 +1731,10 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -1634,29 +1744,25 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L25 L49 L13" formulaRange="1"/>
+    <ignoredError sqref="N25 N49 N13" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
-    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
-    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,29 +1957,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
+    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
+    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1900,9 +2001,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/data/countries.xlsx
+++ b/docs/data/countries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,8 +417,8 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A98:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1479,9 @@
       <c r="A88" s="4">
         <v>44986</v>
       </c>
-      <c r="G88" s="3"/>
+      <c r="G88" s="3">
+        <v>3</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -1496,7 +1498,7 @@
         <v>45017</v>
       </c>
       <c r="G89" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -1642,9 +1644,6 @@
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>45292</v>
-      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -1658,9 +1657,6 @@
       <c r="Q98" s="3"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>45323</v>
-      </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -1674,9 +1670,6 @@
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>45352</v>
-      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -1690,9 +1683,6 @@
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>45383</v>
-      </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -1706,9 +1696,6 @@
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>45413</v>
-      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -1766,6 +1753,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
+    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
+    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4181E9E5D52F4C9586F49BFE5EE298" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a7a4b3985722b9877beb0be694fbd58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4" xmlns:ns3="d92fc194-eb53-4f7a-b45f-993e54cb3c65" xmlns:ns4="f191ad30-9ade-4f0c-b78e-cf30469879ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="751d83e966f247b9feaf745e5d14cfa5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1956,21 +1958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <FileSizeOrChildItemCount xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">17 KB</FileSizeOrChildItemCount>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2028-11-30T23:00:00+00:00</_dlc_ExpireDate>
-    <TaxCatchAll xmlns="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <DocumentType xmlns="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4">1</DocumentType>
-    <TaxKeywordTaxHTField xmlns="d92fc194-eb53-4f7a-b45f-993e54cb3c65">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A77888-53C6-464C-8A2C-8B68487BDD80}">
   <ds:schemaRefs>
@@ -1980,6 +1967,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF0CD2-A3B5-41A6-B6D3-1EA02F2B6377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1998,23 +2004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ECEC803-CE3A-41AA-8A6B-E3884C13B2B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f191ad30-9ade-4f0c-b78e-cf30469879ae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d92fc194-eb53-4f7a-b45f-993e54cb3c65"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1071F304-F5D9-4CC4-AFCF-D37DA46A96D4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>